--- a/src/Services/WareHouse/WareHouse.API/wwwroot/Templates/Reports/ReportDetail_vi.xlsx
+++ b/src/Services/WareHouse/WareHouse.API/wwwroot/Templates/Reports/ReportDetail_vi.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\DoAnTotNghiep\src\Services\WareHouse\WareHouse.API\wwwroot\Templates\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D09EE61-43A2-4B22-B99E-E4E57A97A0F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Báo cáo thẻ kho" sheetId="1" r:id="rId1"/>
@@ -16,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Công ty Cổ phần Viễn thông Quốc tế</t>
   </si>
   <si>
-    <t>&amp;=Info.Title</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -39,9 +42,6 @@
     <t>Tên vật tư</t>
   </si>
   <si>
-    <t>Chủng loại</t>
-  </si>
-  <si>
     <t>Đơn vị tính</t>
   </si>
   <si>
@@ -51,21 +51,9 @@
     <t>Tổng tồn</t>
   </si>
   <si>
-    <t>Mục đích</t>
-  </si>
-  <si>
-    <t>Người đề xuất</t>
-  </si>
-  <si>
-    <t>Tên phòng ban</t>
-  </si>
-  <si>
     <t>Mô tả</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>&amp;=Data.Moment</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>&amp;=Data.WareHouseItemName</t>
   </si>
   <si>
-    <t>&amp;=Data.Category</t>
-  </si>
-  <si>
     <t>&amp;=Data.UnitName</t>
   </si>
   <si>
@@ -93,43 +78,49 @@
     <t>&amp;=Data.Balance</t>
   </si>
   <si>
-    <t>&amp;=Data.Purpose</t>
-  </si>
-  <si>
-    <t>&amp;=Data.Proposer</t>
-  </si>
-  <si>
     <t>&amp;=Data.DepartmentName</t>
   </si>
   <si>
     <t>&amp;=Data.Description</t>
   </si>
   <si>
-    <t>&amp;=Data.NoteRender</t>
-  </si>
-  <si>
     <t>Xuất</t>
   </si>
   <si>
     <t>Nhập</t>
   </si>
   <si>
-    <t>Chứng từ nhập</t>
-  </si>
-  <si>
-    <t>Chứng từ xuất</t>
-  </si>
-  <si>
-    <t>&amp;=Data.VoucherCodeImport</t>
-  </si>
-  <si>
-    <t>&amp;=Data.VoucherCodeExport</t>
+    <t>Chứng từ</t>
+  </si>
+  <si>
+    <t>&amp;=Data.VoucherCode</t>
+  </si>
+  <si>
+    <t>Bộ phận</t>
+  </si>
+  <si>
+    <t>Lí do</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Dự án</t>
+  </si>
+  <si>
+    <t>&amp;=Data.Reason</t>
+  </si>
+  <si>
+    <t>&amp;=Data.EmployeeName</t>
+  </si>
+  <si>
+    <t>&amp;=Data.ProjectName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -198,11 +189,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,6 +228,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,9 +245,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,6 +254,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +279,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -331,7 +360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,9 +393,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,6 +445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,216 +637,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+    <row r="2" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
+  <mergeCells count="17">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G2:L2"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -792,24 +832,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
